--- a/df_full.xlsx
+++ b/df_full.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cs101125\Desktop\Dash\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -43,158 +48,158 @@
     <t>A Vencer</t>
   </si>
   <si>
-    <t>ADECOAGRO</t>
-  </si>
-  <si>
-    <t>ALTO ALEGRE</t>
-  </si>
-  <si>
-    <t>AMAGGI</t>
-  </si>
-  <si>
-    <t>AMAMBAI</t>
-  </si>
-  <si>
-    <t>ATVOS</t>
-  </si>
-  <si>
-    <t>BLUEWAY</t>
-  </si>
-  <si>
-    <t>BRFERTIL</t>
-  </si>
-  <si>
-    <t>BUNGE</t>
-  </si>
-  <si>
-    <t>CANEX</t>
-  </si>
-  <si>
-    <t>CIBRA</t>
-  </si>
-  <si>
-    <t>COFCO</t>
-  </si>
-  <si>
-    <t>COOPAVEL</t>
-  </si>
-  <si>
-    <t>COOPCANA</t>
-  </si>
-  <si>
-    <t>COPERSUCAR</t>
-  </si>
-  <si>
-    <t>CORURIPE</t>
-  </si>
-  <si>
-    <t>ECTP</t>
-  </si>
-  <si>
-    <t>ELDORADO</t>
-  </si>
-  <si>
-    <t>FERTIPAR</t>
-  </si>
-  <si>
-    <t>GEN</t>
-  </si>
-  <si>
-    <t>J MACEDO</t>
-  </si>
-  <si>
-    <t>LDC</t>
-  </si>
-  <si>
-    <t>LOUIS DREYFUS</t>
-  </si>
-  <si>
-    <t>MOSAIC</t>
-  </si>
-  <si>
-    <t>RAIZEN INTER</t>
-  </si>
-  <si>
-    <t>RAÍZEN ENER</t>
-  </si>
-  <si>
-    <t>RAÍZEN INTER</t>
-  </si>
-  <si>
-    <t>RAÍZEN TRADING</t>
-  </si>
-  <si>
-    <t>SANTA TEREZINHA</t>
-  </si>
-  <si>
-    <t>SOTRAN</t>
-  </si>
-  <si>
-    <t>SUCDEN</t>
-  </si>
-  <si>
-    <t>SUCRES</t>
-  </si>
-  <si>
-    <t>SÃO MARTINHO</t>
-  </si>
-  <si>
-    <t>TOCANTINS</t>
-  </si>
-  <si>
-    <t>USINA ALCOOLVALE</t>
-  </si>
-  <si>
-    <t>USINA CLEALCO</t>
-  </si>
-  <si>
-    <t>USINA COLOMBO</t>
-  </si>
-  <si>
-    <t>USINA ITAJOBI</t>
-  </si>
-  <si>
-    <t>USINA LINS</t>
-  </si>
-  <si>
-    <t>USINA SJC</t>
-  </si>
-  <si>
-    <t>USINA TIETE</t>
-  </si>
-  <si>
-    <t>VITERRA</t>
-  </si>
-  <si>
-    <t>VITERRA BIO</t>
-  </si>
-  <si>
-    <t>WILMAR</t>
-  </si>
-  <si>
-    <t>YARA</t>
-  </si>
-  <si>
     <t>Sul</t>
   </si>
   <si>
     <t>Norte</t>
   </si>
   <si>
-    <t>Açúcar</t>
-  </si>
-  <si>
-    <t>Fertilizantes</t>
-  </si>
-  <si>
-    <t>Soluções Logísticas</t>
+    <t>CLIENTE 1</t>
+  </si>
+  <si>
+    <t>CLIENTE 2</t>
+  </si>
+  <si>
+    <t>CLIENTE 3</t>
+  </si>
+  <si>
+    <t>CLIENTE 4</t>
+  </si>
+  <si>
+    <t>CLIENTE 5</t>
+  </si>
+  <si>
+    <t>CLIENTE 6</t>
+  </si>
+  <si>
+    <t>CLIENTE 7</t>
+  </si>
+  <si>
+    <t>CLIENTE 8</t>
+  </si>
+  <si>
+    <t>CLIENTE 9</t>
+  </si>
+  <si>
+    <t>CLIENTE 10</t>
+  </si>
+  <si>
+    <t>CLIENTE 11</t>
+  </si>
+  <si>
+    <t>CLIENTE 12</t>
+  </si>
+  <si>
+    <t>CLIENTE 13</t>
+  </si>
+  <si>
+    <t>CLIENTE 14</t>
+  </si>
+  <si>
+    <t>CLIENTE 15</t>
+  </si>
+  <si>
+    <t>CLIENTE 16</t>
+  </si>
+  <si>
+    <t>CLIENTE 17</t>
+  </si>
+  <si>
+    <t>CLIENTE 18</t>
+  </si>
+  <si>
+    <t>CLIENTE 19</t>
+  </si>
+  <si>
+    <t>CLIENTE 20</t>
+  </si>
+  <si>
+    <t>CLIENTE 21</t>
+  </si>
+  <si>
+    <t>CLIENTE 22</t>
+  </si>
+  <si>
+    <t>CLIENTE 23</t>
+  </si>
+  <si>
+    <t>CLIENTE 24</t>
+  </si>
+  <si>
+    <t>CLIENTE 25</t>
+  </si>
+  <si>
+    <t>CLIENTE 26</t>
+  </si>
+  <si>
+    <t>CLIENTE 27</t>
+  </si>
+  <si>
+    <t>CLIENTE 28</t>
+  </si>
+  <si>
+    <t>CLIENTE 29</t>
+  </si>
+  <si>
+    <t>CLIENTE 30</t>
+  </si>
+  <si>
+    <t>CLIENTE 31</t>
+  </si>
+  <si>
+    <t>CLIENTE 32</t>
+  </si>
+  <si>
+    <t>CLIENTE 33</t>
+  </si>
+  <si>
+    <t>CLIENTE 34</t>
+  </si>
+  <si>
+    <t>CLIENTE 35</t>
+  </si>
+  <si>
+    <t>CLIENTE 36</t>
+  </si>
+  <si>
+    <t>CLIENTE 37</t>
+  </si>
+  <si>
+    <t>CLIENTE 38</t>
+  </si>
+  <si>
+    <t>CLIENTE 39</t>
+  </si>
+  <si>
+    <t>CLIENTE 40</t>
+  </si>
+  <si>
+    <t>CLIENTE 41</t>
+  </si>
+  <si>
+    <t>CLIENTE 42</t>
+  </si>
+  <si>
+    <t>CLIENTE 43</t>
+  </si>
+  <si>
+    <t>CLIENTE 44</t>
+  </si>
+  <si>
+    <t>PRODUTO 1</t>
+  </si>
+  <si>
+    <t>PRODUTO 2</t>
+  </si>
+  <si>
+    <t>PRODUTO 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,11 +262,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -303,7 +316,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -335,9 +348,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -369,6 +383,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -544,14 +559,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -580,18 +595,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>53</v>
       </c>
       <c r="C2" t="s">
         <v>55</v>
       </c>
       <c r="D2">
-        <v>244806.2800000001</v>
+        <v>244806.28000000009</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -606,15 +621,15 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>3145719.110000008</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>3145719.1100000078</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
@@ -635,15 +650,15 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>276732.2600000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>276732.26000000013</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>56</v>
@@ -667,12 +682,12 @@
         <v>233266.01</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>55</v>
@@ -696,12 +711,12 @@
         <v>447119.4800000001</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>55</v>
@@ -722,15 +737,15 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>476369.6199999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>476369.61999999982</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
         <v>55</v>
@@ -739,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26706.96</v>
+        <v>26706.959999999999</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -754,12 +769,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
         <v>56</v>
@@ -783,12 +798,12 @@
         <v>315334.63</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
         <v>57</v>
@@ -812,12 +827,12 @@
         <v>517767.7099999995</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>55</v>
@@ -838,15 +853,15 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>95648.79999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>95648.799999999988</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>56</v>
@@ -870,12 +885,12 @@
         <v>230585.63</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
         <v>55</v>
@@ -899,12 +914,12 @@
         <v>1612277.310000001</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
         <v>56</v>
@@ -928,12 +943,12 @@
         <v>295537.32</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
         <v>55</v>
@@ -957,12 +972,12 @@
         <v>525559.7699999999</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
         <v>55</v>
@@ -983,15 +998,15 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>914145.8999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>914145.89999999967</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
         <v>57</v>
@@ -1000,10 +1015,10 @@
         <v>6144.56</v>
       </c>
       <c r="E16">
-        <v>7448.360000000001</v>
+        <v>7448.3600000000006</v>
       </c>
       <c r="F16">
-        <v>77919.92999999999</v>
+        <v>77919.929999999993</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1015,12 +1030,12 @@
         <v>396.55</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
         <v>55</v>
@@ -1044,12 +1059,12 @@
         <v>1711488.52</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
         <v>57</v>
@@ -1061,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>4364.52</v>
+        <v>4364.5200000000004</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1073,12 +1088,12 @@
         <v>1596972.23</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
         <v>55</v>
@@ -1099,15 +1114,15 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2300591.500000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>2300591.5000000009</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
         <v>57</v>
@@ -1131,12 +1146,12 @@
         <v>388830.26</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
         <v>56</v>
@@ -1160,12 +1175,12 @@
         <v>876.16</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
         <v>56</v>
@@ -1189,12 +1204,12 @@
         <v>269378.58</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
         <v>56</v>
@@ -1218,12 +1233,12 @@
         <v>114867.5</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
         <v>56</v>
@@ -1247,18 +1262,18 @@
         <v>120.97</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
         <v>57</v>
       </c>
       <c r="D25">
-        <v>670052.4299999998</v>
+        <v>670052.42999999982</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1276,12 +1291,12 @@
         <v>1453524.76</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
         <v>56</v>
@@ -1305,12 +1320,12 @@
         <v>17391.37</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
         <v>56</v>
@@ -1334,12 +1349,12 @@
         <v>1182093.08</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
         <v>55</v>
@@ -1348,7 +1363,7 @@
         <v>165233.3000000001</v>
       </c>
       <c r="E28">
-        <v>394585.1099999999</v>
+        <v>394585.10999999993</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1363,12 +1378,12 @@
         <v>201239.9200000001</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
         <v>57</v>
@@ -1389,24 +1404,24 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>3677220.900000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>3677220.9000000018</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="C30" t="s">
         <v>57</v>
       </c>
       <c r="D30">
-        <v>566992.55</v>
+        <v>566992.55000000005</v>
       </c>
       <c r="E30">
-        <v>345565.5600000001</v>
+        <v>345565.56000000011</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1421,12 +1436,12 @@
         <v>231394.6</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s">
         <v>57</v>
@@ -1450,12 +1465,12 @@
         <v>83448.7</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
         <v>55</v>
@@ -1476,15 +1491,15 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>6819665.699999986</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>6819665.6999999862</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
         <v>56</v>
@@ -1505,15 +1520,15 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>309315.5000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>309315.50000000012</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
         <v>55</v>
@@ -1537,12 +1552,12 @@
         <v>162480.56</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="C35" t="s">
         <v>57</v>
@@ -1563,15 +1578,15 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>2171298.320000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>2171298.3200000012</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="C36" t="s">
         <v>57</v>
@@ -1586,21 +1601,21 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>70820.89999999999</v>
+        <v>70820.899999999994</v>
       </c>
       <c r="H36">
-        <v>59867.60000000001</v>
+        <v>59867.600000000013</v>
       </c>
       <c r="I36">
-        <v>625765.0400000003</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>625765.04000000027</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="C37" t="s">
         <v>57</v>
@@ -1624,12 +1639,12 @@
         <v>2123863.96</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="C38" t="s">
         <v>56</v>
@@ -1650,15 +1665,15 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>2352844.519999998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>2352844.5199999982</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="C39" t="s">
         <v>57</v>
@@ -1682,18 +1697,18 @@
         <v>101645.38</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="C40" t="s">
         <v>57</v>
       </c>
       <c r="D40">
-        <v>734633.7500000001</v>
+        <v>734633.75000000012</v>
       </c>
       <c r="E40">
         <v>189442.38</v>
@@ -1711,12 +1726,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="C41" t="s">
         <v>57</v>
@@ -1737,15 +1752,15 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>344017.3699999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>344017.36999999988</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="C42" t="s">
         <v>57</v>
@@ -1769,12 +1784,12 @@
         <v>133480.19</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="C43" t="s">
         <v>57</v>
@@ -1798,12 +1813,12 @@
         <v>337251.24</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="C44" t="s">
         <v>57</v>
@@ -1827,12 +1842,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="C45" t="s">
         <v>57</v>
@@ -1856,12 +1871,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="C46" t="s">
         <v>55</v>
@@ -1885,12 +1900,12 @@
         <v>1925652.83</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
         <v>55</v>
@@ -1914,12 +1929,12 @@
         <v>1411040.86</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="C48" t="s">
         <v>57</v>
@@ -1943,12 +1958,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -1966,18 +1981,18 @@
         <v>5296.82</v>
       </c>
       <c r="H49">
-        <v>2364.45</v>
+        <v>2364.4499999999998</v>
       </c>
       <c r="I49">
         <v>1762.36</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
         <v>56</v>
@@ -1998,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>837543.7300000003</v>
+        <v>837543.73000000033</v>
       </c>
     </row>
   </sheetData>
